--- a/style.xlsx
+++ b/style.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B646531E-3303-4B88-91B2-D648152E984F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A43AD4-E1EF-4657-9340-8CDFFC1D2E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="css" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>用了position:fixed之后，下面的div层就识别不到上面的高度了，结果就会如下图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +63,10 @@
   </si>
   <si>
     <t>最后一个按钮margin-left是空最右边的边距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css定义变量和使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -125,6 +130,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304305</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D9E18C-4E65-4F11-8F05-F1EC554E6C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="426720"/>
+          <a:ext cx="3961905" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -919,66 +973,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36047244-E218-485E-B6C9-A7E63B150404}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A16:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="16" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N59" t="s">
         <v>10</v>
       </c>
